--- a/m0/doc/TestControl.xlsx
+++ b/m0/doc/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04824C-1321-4CAB-AB27-3A0FFCA6012E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B53AA-1867-420C-B41B-AD1D5C51FB94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,9 +486,10 @@
 br_NO(S_NO);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/08 10:22:57
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/08 10:31:52
 ; * pssgEditor version : 0.10.5661.922454b86f88ec7ef77d713eac18f046cd61d4b5
 psggfile=@@@
+TestControl.psgg
 @@@
 xlsfile=@@@
 TestControl.xlsx
@@ -503,7 +504,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Edited a state.
+Initilized
 @@@
 target_pathdir=@@@
 /
@@ -511,7 +512,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":789,"y":352}},{"Key":"S_0001","Value":{"x":200,"y":252}},{"Key":"S_0002","Value":{"x":452,"y":242}},{"Key":"S_0003","Value":{"x":457,"y":417}},{"Key":"S_SET_YES_OR_NO","Value":{"x":200,"y":252}},{"Key":"S_YES","Value":{"x":452,"y":242}},{"Key":"S_NO","Value":{"x":457,"y":417}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":789,"y":352}},{"Key":"S_SET_YES_OR_NO","Value":{"x":200,"y":252}},{"Key":"S_YES","Value":{"x":452,"y":242}},{"Key":"S_NO","Value":{"x":457,"y":417}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]

--- a/m0/doc/TestControl.xlsx
+++ b/m0/doc/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B53AA-1867-420C-B41B-AD1D5C51FB94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2ECE0-C8BC-48F7-81E4-C52454435F26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>thumbnail</t>
   </si>
@@ -369,6 +369,9 @@
 </t>
   </si>
   <si>
+    <t>(bitmap)</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
@@ -381,6 +384,9 @@
     <t>S_END</t>
   </si>
   <si>
+    <t>S_HELLO_WORLD</t>
+  </si>
+  <si>
     <t>state-cmt</t>
   </si>
   <si>
@@ -397,6 +403,9 @@
   </si>
   <si>
     <t>init</t>
+  </si>
+  <si>
+    <t>WriteLn('Hello World');</t>
   </si>
   <si>
     <t>init-cmt</t>
@@ -449,53 +458,46 @@
     <t>100003</t>
   </si>
   <si>
-    <t>(bitmap)</t>
+    <t>S_SELECT_YES_OR_NO</t>
+  </si>
+  <si>
+    <t>S_YES</t>
+  </si>
+  <si>
+    <t>S_NO</t>
   </si>
   <si>
     <t>WriteLn('YES');</t>
   </si>
   <si>
     <t>WriteLn('NO');</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>set_yes_or_no;</t>
-  </si>
-  <si>
-    <t>S_SET_YES_OR_NO</t>
-  </si>
-  <si>
-    <t>S_YES</t>
-  </si>
-  <si>
-    <t>S_NO</t>
-  </si>
-  <si>
-    <t>YES/NO Select</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>br_YES(S_YES);
 br_NO(S_NO);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/08 10:31:52
+    <t>100004</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>select_yes_no;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/08 11:56:28
 ; * pssgEditor version : 0.10.5661.922454b86f88ec7ef77d713eac18f046cd61d4b5
 psggfile=@@@
-TestControl.psgg
 @@@
 xlsfile=@@@
 TestControl.xlsx
 @@@
 guid=@@@
-2e8edbef-2ca5-4fae-b3e2-cd0ae5c9ed8f
+5fb783b3-c1e2-4063-9b69-5e7716d40d74
 @@@
 bitmap_width=5000
 bitmap_height=2000
@@ -504,7 +506,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Initilized
+Edited a state.
 @@@
 target_pathdir=@@@
 /
@@ -512,7 +514,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":789,"y":352}},{"Key":"S_SET_YES_OR_NO","Value":{"x":200,"y":252}},{"Key":"S_YES","Value":{"x":452,"y":242}},{"Key":"S_NO","Value":{"x":457,"y":417}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":33,"y":125}},{"Key":"S_END","Value":{"x":811,"y":119}},{"Key":"S_0001","Value":{"x":634,"y":309}},{"Key":"S_HELLO_WORLD","Value":{"x":40,"y":302}},{"Key":"S_SELECT_YES_OR_NO","Value":{"x":305,"y":304}},{"Key":"S_YES","Value":{"x":567,"y":302}},{"Key":"S_YES1","Value":{"x":632,"y":426}},{"Key":"S_NO","Value":{"x":576,"y":419}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -529,7 +531,7 @@
 @@@
 option_delete_thisstring=1
 option_delete_br_string=1
-option_delete_bracket_string=1
+option_delete_bracket_string=0
 option_delete_s_state_string=1
 font_name=@@@
 MS UI Gothic
@@ -1085,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
@@ -1101,7 +1103,7 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1110,188 +1112,191 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1">
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1">
+        <v>38</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1">
+    <row r="9" spans="1:9" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1">
+    <row r="10" spans="1:9" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1">
+    <row r="12" spans="1:9" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1">
+    <row r="13" spans="1:9" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1">
+    <row r="14" spans="1:9" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1">
+    <row r="15" spans="1:9" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1">
+    <row r="16" spans="1:9" s="11" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1">
+    <row r="17" spans="1:9" s="11" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1300,81 +1305,87 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1">
+    <row r="18" spans="1:9" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1">
+    <row r="19" spans="1:9" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="37.5">
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="37.5">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="G20" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:8" s="16" customFormat="1"/>
-    <row r="23" spans="1:8" s="16" customFormat="1" ht="56.25">
+    <row r="22" spans="1:9" s="16" customFormat="1"/>
+    <row r="23" spans="1:9" s="16" customFormat="1" ht="56.25">
       <c r="B23" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="16" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="16" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="16" customFormat="1">
       <c r="B25" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0E756C-8A43-4491-B386-4EBC21731083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602CC5A-7ADC-4523-95C8-396DC143B862}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1394,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A816A818-F324-4BC9-8F43-2504AC0F87ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C6894E-BD3F-41D6-B3ED-347D88D0A6EB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1425,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBEA418-2DF3-44B0-ACA9-381B7ACEC28C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C981099C-4329-4284-8909-926A6FBD28E1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1444,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFB654F-693E-48AF-9012-F51F49B70C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E0EA57-DD99-4B70-B072-CFD547A377A8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1463,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D970A9-A96A-4D46-BB0F-3725AA306A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF03C88E-7FB2-4272-ABE3-770CEC5803DD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
